--- a/biology/Zoologie/Graptemys/Graptemys.xlsx
+++ b/biology/Zoologie/Graptemys/Graptemys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Graptemys est un genre de tortues de la famille des Emydidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Graptemys est un genre de tortues de la famille des Emydidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces tortues se rencontrent en Amérique du Nord, essentiellement aux Etats-Unis.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des tortues aquatiques et carnivores.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (27 mai 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (27 mai 2011) :
 Graptemys barbouri Carr &amp; Marchand, 1942
 Graptemys caglei Haynes &amp; McKown, 1974
 Graptemys ernsti Lovich &amp; McCoy, 1992
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agassiz, 1857 : Contributions to the Natural History of the United States of America. Little, Brown &amp; Co., Boston, vol. 1, p. 1-452 (texte intégral).</t>
         </is>
